--- a/natmiOut/OldD2/LR-pairs_lrc2p/Efnb2-Ephb4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Efnb2-Ephb4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.3630471880002</v>
+        <v>40.497736</v>
       </c>
       <c r="H2">
-        <v>40.3630471880002</v>
+        <v>80.99547200000001</v>
       </c>
       <c r="I2">
-        <v>0.4396392843812731</v>
+        <v>0.4338277436889532</v>
       </c>
       <c r="J2">
-        <v>0.4396392843812731</v>
+        <v>0.3549025979779166</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>48.2281042436324</v>
+        <v>48.3439545</v>
       </c>
       <c r="N2">
-        <v>48.2281042436324</v>
+        <v>96.68790899999999</v>
       </c>
       <c r="O2">
-        <v>0.5955791056817948</v>
+        <v>0.5906069762936997</v>
       </c>
       <c r="P2">
-        <v>0.5955791056817948</v>
+        <v>0.5029826098832294</v>
       </c>
       <c r="Q2">
-        <v>1946.633247373527</v>
+        <v>1957.820706537012</v>
       </c>
       <c r="R2">
-        <v>1946.633247373527</v>
+        <v>7831.282826148048</v>
       </c>
       <c r="S2">
-        <v>0.261839971814383</v>
+        <v>0.2562216919324508</v>
       </c>
       <c r="T2">
-        <v>0.261839971814383</v>
+        <v>0.178509834985271</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.3630471880002</v>
+        <v>40.497736</v>
       </c>
       <c r="H3">
-        <v>40.3630471880002</v>
+        <v>80.99547200000001</v>
       </c>
       <c r="I3">
-        <v>0.4396392843812731</v>
+        <v>0.4338277436889532</v>
       </c>
       <c r="J3">
-        <v>0.4396392843812731</v>
+        <v>0.3549025979779166</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.58055528418522</v>
+        <v>3.756530666666666</v>
       </c>
       <c r="N3">
-        <v>3.58055528418522</v>
+        <v>11.269592</v>
       </c>
       <c r="O3">
-        <v>0.04421703791686597</v>
+        <v>0.04589267140722955</v>
       </c>
       <c r="P3">
-        <v>0.04421703791686597</v>
+        <v>0.05862582876292385</v>
       </c>
       <c r="Q3">
-        <v>144.5221218948115</v>
+        <v>152.1309872145707</v>
       </c>
       <c r="R3">
-        <v>144.5221218948115</v>
+        <v>912.785923287424</v>
       </c>
       <c r="S3">
-        <v>0.01943954690723057</v>
+        <v>0.01990951408845693</v>
       </c>
       <c r="T3">
-        <v>0.01943954690723057</v>
+        <v>0.02080645893657014</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.3630471880002</v>
+        <v>40.497736</v>
       </c>
       <c r="H4">
-        <v>40.3630471880002</v>
+        <v>80.99547200000001</v>
       </c>
       <c r="I4">
-        <v>0.4396392843812731</v>
+        <v>0.4338277436889532</v>
       </c>
       <c r="J4">
-        <v>0.4396392843812731</v>
+        <v>0.3549025979779166</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>24.3535515704636</v>
+        <v>0.03548533333333333</v>
       </c>
       <c r="N4">
-        <v>24.3535515704636</v>
+        <v>0.106456</v>
       </c>
       <c r="O4">
-        <v>0.3007471824154734</v>
+        <v>0.0004335161581118491</v>
       </c>
       <c r="P4">
-        <v>0.3007471824154734</v>
+        <v>0.0005537974424261163</v>
       </c>
       <c r="Q4">
-        <v>982.9835512340187</v>
+        <v>1.437075661205333</v>
       </c>
       <c r="R4">
-        <v>982.9835512340187</v>
+        <v>8.622453967232</v>
       </c>
       <c r="S4">
-        <v>0.132220276056823</v>
+        <v>0.000188071336726367</v>
       </c>
       <c r="T4">
-        <v>0.132220276056823</v>
+        <v>0.0001965441510705544</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.3630471880002</v>
+        <v>40.497736</v>
       </c>
       <c r="H5">
-        <v>40.3630471880002</v>
+        <v>80.99547200000001</v>
       </c>
       <c r="I5">
-        <v>0.4396392843812731</v>
+        <v>0.4338277436889532</v>
       </c>
       <c r="J5">
-        <v>0.4396392843812731</v>
+        <v>0.3549025979779166</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.81461260748464</v>
+        <v>24.727721</v>
       </c>
       <c r="N5">
-        <v>4.81461260748464</v>
+        <v>74.18316300000001</v>
       </c>
       <c r="O5">
-        <v>0.05945667398586567</v>
+        <v>0.3020928817572056</v>
       </c>
       <c r="P5">
-        <v>0.05945667398586567</v>
+        <v>0.3859101031457101</v>
       </c>
       <c r="Q5">
-        <v>194.3324358678432</v>
+        <v>1001.416716939656</v>
       </c>
       <c r="R5">
-        <v>194.3324358678432</v>
+        <v>6008.500301637937</v>
       </c>
       <c r="S5">
-        <v>0.02613948960283664</v>
+        <v>0.1310562732772222</v>
       </c>
       <c r="T5">
-        <v>0.02613948960283664</v>
+        <v>0.1369604981923383</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.99620921502984</v>
+        <v>40.497736</v>
       </c>
       <c r="H6">
-        <v>5.99620921502984</v>
+        <v>80.99547200000001</v>
       </c>
       <c r="I6">
-        <v>0.06531144975297699</v>
+        <v>0.4338277436889532</v>
       </c>
       <c r="J6">
-        <v>0.06531144975297699</v>
+        <v>0.3549025979779166</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>48.2281042436324</v>
+        <v>4.9910045</v>
       </c>
       <c r="N6">
-        <v>48.2281042436324</v>
+        <v>9.982009</v>
       </c>
       <c r="O6">
-        <v>0.5955791056817948</v>
+        <v>0.06097395438375338</v>
       </c>
       <c r="P6">
-        <v>0.5955791056817948</v>
+        <v>0.05192766076571049</v>
       </c>
       <c r="Q6">
-        <v>289.1858030890883</v>
+        <v>202.124382615812</v>
       </c>
       <c r="R6">
-        <v>289.1858030890883</v>
+        <v>808.497530463248</v>
       </c>
       <c r="S6">
-        <v>0.03889813483465952</v>
+        <v>0.02645219305409689</v>
       </c>
       <c r="T6">
-        <v>0.03889813483465952</v>
+        <v>0.01842926171266658</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.99620921502984</v>
+        <v>6.464838333333333</v>
       </c>
       <c r="H7">
-        <v>5.99620921502984</v>
+        <v>19.394515</v>
       </c>
       <c r="I7">
-        <v>0.06531144975297699</v>
+        <v>0.06925390168635236</v>
       </c>
       <c r="J7">
-        <v>0.06531144975297699</v>
+        <v>0.08498208097388052</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.58055528418522</v>
+        <v>48.3439545</v>
       </c>
       <c r="N7">
-        <v>3.58055528418522</v>
+        <v>96.68790899999999</v>
       </c>
       <c r="O7">
-        <v>0.04421703791686597</v>
+        <v>0.5906069762936997</v>
       </c>
       <c r="P7">
-        <v>0.04421703791686597</v>
+        <v>0.5029826098832294</v>
       </c>
       <c r="Q7">
-        <v>21.4697585899552</v>
+        <v>312.5358502365224</v>
       </c>
       <c r="R7">
-        <v>21.4697585899552</v>
+        <v>1875.215101419135</v>
       </c>
       <c r="S7">
-        <v>0.00288787885013287</v>
+        <v>0.04090183747151772</v>
       </c>
       <c r="T7">
-        <v>0.00288787885013287</v>
+        <v>0.04274450888155035</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.99620921502984</v>
+        <v>6.464838333333333</v>
       </c>
       <c r="H8">
-        <v>5.99620921502984</v>
+        <v>19.394515</v>
       </c>
       <c r="I8">
-        <v>0.06531144975297699</v>
+        <v>0.06925390168635236</v>
       </c>
       <c r="J8">
-        <v>0.06531144975297699</v>
+        <v>0.08498208097388052</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>24.3535515704636</v>
+        <v>3.756530666666666</v>
       </c>
       <c r="N8">
-        <v>24.3535515704636</v>
+        <v>11.269592</v>
       </c>
       <c r="O8">
-        <v>0.3007471824154734</v>
+        <v>0.04589267140722955</v>
       </c>
       <c r="P8">
-        <v>0.3007471824154734</v>
+        <v>0.05862582876292385</v>
       </c>
       <c r="Q8">
-        <v>146.0289903455183</v>
+        <v>24.28536345420888</v>
       </c>
       <c r="R8">
-        <v>146.0289903455183</v>
+        <v>218.56827108788</v>
       </c>
       <c r="S8">
-        <v>0.0196422344926776</v>
+        <v>0.003178246553760349</v>
       </c>
       <c r="T8">
-        <v>0.0196422344926776</v>
+        <v>0.004982144927091648</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.99620921502984</v>
+        <v>6.464838333333333</v>
       </c>
       <c r="H9">
-        <v>5.99620921502984</v>
+        <v>19.394515</v>
       </c>
       <c r="I9">
-        <v>0.06531144975297699</v>
+        <v>0.06925390168635236</v>
       </c>
       <c r="J9">
-        <v>0.06531144975297699</v>
+        <v>0.08498208097388052</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>4.81461260748464</v>
+        <v>0.03548533333333333</v>
       </c>
       <c r="N9">
-        <v>4.81461260748464</v>
+        <v>0.106456</v>
       </c>
       <c r="O9">
-        <v>0.05945667398586567</v>
+        <v>0.0004335161581118491</v>
       </c>
       <c r="P9">
-        <v>0.05945667398586567</v>
+        <v>0.0005537974424261163</v>
       </c>
       <c r="Q9">
-        <v>28.86942448379824</v>
+        <v>0.2294069432044444</v>
       </c>
       <c r="R9">
-        <v>28.86942448379824</v>
+        <v>2.06466248884</v>
       </c>
       <c r="S9">
-        <v>0.003883201575507</v>
+        <v>3.002268539332318E-05</v>
       </c>
       <c r="T9">
-        <v>0.003883201575507</v>
+        <v>4.706285909538415E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.759709191841114</v>
+        <v>6.464838333333333</v>
       </c>
       <c r="H10">
-        <v>0.759709191841114</v>
+        <v>19.394515</v>
       </c>
       <c r="I10">
-        <v>0.00827484614536732</v>
+        <v>0.06925390168635236</v>
       </c>
       <c r="J10">
-        <v>0.00827484614536732</v>
+        <v>0.08498208097388052</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>48.2281042436324</v>
+        <v>24.727721</v>
       </c>
       <c r="N10">
-        <v>48.2281042436324</v>
+        <v>74.18316300000001</v>
       </c>
       <c r="O10">
-        <v>0.5955791056817948</v>
+        <v>0.3020928817572056</v>
       </c>
       <c r="P10">
-        <v>0.5955791056817948</v>
+        <v>0.3859101031457101</v>
       </c>
       <c r="Q10">
-        <v>36.63933409895897</v>
+        <v>159.8607186167717</v>
       </c>
       <c r="R10">
-        <v>36.63933409895897</v>
+        <v>1438.746467550945</v>
       </c>
       <c r="S10">
-        <v>0.004928325466912315</v>
+        <v>0.02092111073336038</v>
       </c>
       <c r="T10">
-        <v>0.004928325466912315</v>
+        <v>0.03279544363416732</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,55 +1092,55 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.759709191841114</v>
+        <v>6.464838333333333</v>
       </c>
       <c r="H11">
-        <v>0.759709191841114</v>
+        <v>19.394515</v>
       </c>
       <c r="I11">
-        <v>0.00827484614536732</v>
+        <v>0.06925390168635236</v>
       </c>
       <c r="J11">
-        <v>0.00827484614536732</v>
+        <v>0.08498208097388052</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.58055528418522</v>
+        <v>4.9910045</v>
       </c>
       <c r="N11">
-        <v>3.58055528418522</v>
+        <v>9.982009</v>
       </c>
       <c r="O11">
-        <v>0.04421703791686597</v>
+        <v>0.06097395438375338</v>
       </c>
       <c r="P11">
-        <v>0.04421703791686597</v>
+        <v>0.05192766076571049</v>
       </c>
       <c r="Q11">
-        <v>2.720180761290784</v>
+        <v>32.26603721343916</v>
       </c>
       <c r="R11">
-        <v>2.720180761290784</v>
+        <v>193.596223280635</v>
       </c>
       <c r="S11">
-        <v>0.000365889185765939</v>
+        <v>0.00422268424232059</v>
       </c>
       <c r="T11">
-        <v>0.000365889185765939</v>
+        <v>0.004412920671975807</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,55 +1154,55 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.759709191841114</v>
+        <v>0.7642823333333334</v>
       </c>
       <c r="H12">
-        <v>0.759709191841114</v>
+        <v>2.292847</v>
       </c>
       <c r="I12">
-        <v>0.00827484614536732</v>
+        <v>0.008187294228282994</v>
       </c>
       <c r="J12">
-        <v>0.00827484614536732</v>
+        <v>0.01004670183372562</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.3535515704636</v>
+        <v>48.3439545</v>
       </c>
       <c r="N12">
-        <v>24.3535515704636</v>
+        <v>96.68790899999999</v>
       </c>
       <c r="O12">
-        <v>0.3007471824154734</v>
+        <v>0.5906069762936997</v>
       </c>
       <c r="P12">
-        <v>0.3007471824154734</v>
+        <v>0.5029826098832294</v>
       </c>
       <c r="Q12">
-        <v>18.50161698205779</v>
+        <v>36.9484303478205</v>
       </c>
       <c r="R12">
-        <v>18.50161698205779</v>
+        <v>221.690582086923</v>
       </c>
       <c r="S12">
-        <v>0.002488636663140763</v>
+        <v>0.004835473088193079</v>
       </c>
       <c r="T12">
-        <v>0.002488636663140763</v>
+        <v>0.005053316309045939</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.759709191841114</v>
+        <v>0.7642823333333334</v>
       </c>
       <c r="H13">
-        <v>0.759709191841114</v>
+        <v>2.292847</v>
       </c>
       <c r="I13">
-        <v>0.00827484614536732</v>
+        <v>0.008187294228282994</v>
       </c>
       <c r="J13">
-        <v>0.00827484614536732</v>
+        <v>0.01004670183372562</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.81461260748464</v>
+        <v>3.756530666666666</v>
       </c>
       <c r="N13">
-        <v>4.81461260748464</v>
+        <v>11.269592</v>
       </c>
       <c r="O13">
-        <v>0.05945667398586567</v>
+        <v>0.04589267140722955</v>
       </c>
       <c r="P13">
-        <v>0.05945667398586567</v>
+        <v>0.05862582876292385</v>
       </c>
       <c r="Q13">
-        <v>3.657705453060194</v>
+        <v>2.871050023158222</v>
       </c>
       <c r="R13">
-        <v>3.657705453060194</v>
+        <v>25.839450208424</v>
       </c>
       <c r="S13">
-        <v>0.000491994829548302</v>
+        <v>0.0003757368037328985</v>
       </c>
       <c r="T13">
-        <v>0.000491994829548302</v>
+        <v>0.0005889962213361513</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.533709373801184</v>
+        <v>0.7642823333333334</v>
       </c>
       <c r="H14">
-        <v>0.533709373801184</v>
+        <v>2.292847</v>
       </c>
       <c r="I14">
-        <v>0.005813228274680102</v>
+        <v>0.008187294228282994</v>
       </c>
       <c r="J14">
-        <v>0.005813228274680102</v>
+        <v>0.01004670183372562</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>48.2281042436324</v>
+        <v>0.03548533333333333</v>
       </c>
       <c r="N14">
-        <v>48.2281042436324</v>
+        <v>0.106456</v>
       </c>
       <c r="O14">
-        <v>0.5955791056817948</v>
+        <v>0.0004335161581118491</v>
       </c>
       <c r="P14">
-        <v>0.5955791056817948</v>
+        <v>0.0005537974424261163</v>
       </c>
       <c r="Q14">
-        <v>25.73979131548727</v>
+        <v>0.02712081335911111</v>
       </c>
       <c r="R14">
-        <v>25.73979131548727</v>
+        <v>0.244087320232</v>
       </c>
       <c r="S14">
-        <v>0.003462237296958098</v>
+        <v>3.54932433917656E-06</v>
       </c>
       <c r="T14">
-        <v>0.003462237296958098</v>
+        <v>5.563837780335021E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.533709373801184</v>
+        <v>0.7642823333333334</v>
       </c>
       <c r="H15">
-        <v>0.533709373801184</v>
+        <v>2.292847</v>
       </c>
       <c r="I15">
-        <v>0.005813228274680102</v>
+        <v>0.008187294228282994</v>
       </c>
       <c r="J15">
-        <v>0.005813228274680102</v>
+        <v>0.01004670183372562</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.58055528418522</v>
+        <v>24.727721</v>
       </c>
       <c r="N15">
-        <v>3.58055528418522</v>
+        <v>74.18316300000001</v>
       </c>
       <c r="O15">
-        <v>0.04421703791686597</v>
+        <v>0.3020928817572056</v>
       </c>
       <c r="P15">
-        <v>0.04421703791686597</v>
+        <v>0.3859101031457101</v>
       </c>
       <c r="Q15">
-        <v>1.910975918583014</v>
+        <v>18.89896030389567</v>
       </c>
       <c r="R15">
-        <v>1.910975918583014</v>
+        <v>170.090642735061</v>
       </c>
       <c r="S15">
-        <v>0.0002570437350409274</v>
+        <v>0.002473323307216146</v>
       </c>
       <c r="T15">
-        <v>0.0002570437350409274</v>
+        <v>0.003877123740927248</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,55 +1402,55 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.533709373801184</v>
+        <v>0.7642823333333334</v>
       </c>
       <c r="H16">
-        <v>0.533709373801184</v>
+        <v>2.292847</v>
       </c>
       <c r="I16">
-        <v>0.005813228274680102</v>
+        <v>0.008187294228282994</v>
       </c>
       <c r="J16">
-        <v>0.005813228274680102</v>
+        <v>0.01004670183372562</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>24.3535515704636</v>
+        <v>4.9910045</v>
       </c>
       <c r="N16">
-        <v>24.3535515704636</v>
+        <v>9.982009</v>
       </c>
       <c r="O16">
-        <v>0.3007471824154734</v>
+        <v>0.06097395438375338</v>
       </c>
       <c r="P16">
-        <v>0.3007471824154734</v>
+        <v>0.05192766076571049</v>
       </c>
       <c r="Q16">
-        <v>12.99771875850697</v>
+        <v>3.814536564937167</v>
       </c>
       <c r="R16">
-        <v>12.99771875850697</v>
+        <v>22.887219389623</v>
       </c>
       <c r="S16">
-        <v>0.001748312024348004</v>
+        <v>0.0004992117048016946</v>
       </c>
       <c r="T16">
-        <v>0.001748312024348004</v>
+        <v>0.0005217017246359455</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.533709373801184</v>
+        <v>0.535784</v>
       </c>
       <c r="H17">
-        <v>0.533709373801184</v>
+        <v>1.607352</v>
       </c>
       <c r="I17">
-        <v>0.005813228274680102</v>
+        <v>0.00573952983012784</v>
       </c>
       <c r="J17">
-        <v>0.005813228274680102</v>
+        <v>0.007043028290087626</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.81461260748464</v>
+        <v>48.3439545</v>
       </c>
       <c r="N17">
-        <v>4.81461260748464</v>
+        <v>96.68790899999999</v>
       </c>
       <c r="O17">
-        <v>0.05945667398586567</v>
+        <v>0.5906069762936997</v>
       </c>
       <c r="P17">
-        <v>0.05945667398586567</v>
+        <v>0.5029826098832294</v>
       </c>
       <c r="Q17">
-        <v>2.569603879835913</v>
+        <v>25.901917317828</v>
       </c>
       <c r="R17">
-        <v>2.569603879835913</v>
+        <v>155.411503906968</v>
       </c>
       <c r="S17">
-        <v>0.0003456352183330712</v>
+        <v>0.003389806358319296</v>
       </c>
       <c r="T17">
-        <v>0.0003456352183330712</v>
+        <v>0.003542520750829693</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>33.0749538326707</v>
+        <v>0.535784</v>
       </c>
       <c r="H18">
-        <v>33.0749538326707</v>
+        <v>1.607352</v>
       </c>
       <c r="I18">
-        <v>0.3602564733581859</v>
+        <v>0.00573952983012784</v>
       </c>
       <c r="J18">
-        <v>0.3602564733581859</v>
+        <v>0.007043028290087626</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>48.2281042436324</v>
+        <v>3.756530666666666</v>
       </c>
       <c r="N18">
-        <v>48.2281042436324</v>
+        <v>11.269592</v>
       </c>
       <c r="O18">
-        <v>0.5955791056817948</v>
+        <v>0.04589267140722955</v>
       </c>
       <c r="P18">
-        <v>0.5955791056817948</v>
+        <v>0.05862582876292385</v>
       </c>
       <c r="Q18">
-        <v>1595.142321295372</v>
+        <v>2.012689026709333</v>
       </c>
       <c r="R18">
-        <v>1595.142321295372</v>
+        <v>18.114201240384</v>
       </c>
       <c r="S18">
-        <v>0.2145612282187457</v>
+        <v>0.000263402356526049</v>
       </c>
       <c r="T18">
-        <v>0.2145612282187457</v>
+        <v>0.0004129033705071056</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>33.0749538326707</v>
+        <v>0.535784</v>
       </c>
       <c r="H19">
-        <v>33.0749538326707</v>
+        <v>1.607352</v>
       </c>
       <c r="I19">
-        <v>0.3602564733581859</v>
+        <v>0.00573952983012784</v>
       </c>
       <c r="J19">
-        <v>0.3602564733581859</v>
+        <v>0.007043028290087626</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>3.58055528418522</v>
+        <v>0.03548533333333333</v>
       </c>
       <c r="N19">
-        <v>3.58055528418522</v>
+        <v>0.106456</v>
       </c>
       <c r="O19">
-        <v>0.04421703791686597</v>
+        <v>0.0004335161581118491</v>
       </c>
       <c r="P19">
-        <v>0.04421703791686597</v>
+        <v>0.0005537974424261163</v>
       </c>
       <c r="Q19">
-        <v>118.4267007197513</v>
+        <v>0.01901247383466667</v>
       </c>
       <c r="R19">
-        <v>118.4267007197513</v>
+        <v>0.171112264512</v>
       </c>
       <c r="S19">
-        <v>0.01592947414227532</v>
+        <v>2.488178921325375E-06</v>
       </c>
       <c r="T19">
-        <v>0.01592947414227532</v>
+        <v>3.900411053985311E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1653,57 +1653,57 @@
         <v>24</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>33.0749538326707</v>
+        <v>0.535784</v>
       </c>
       <c r="H20">
-        <v>33.0749538326707</v>
+        <v>1.607352</v>
       </c>
       <c r="I20">
-        <v>0.3602564733581859</v>
+        <v>0.00573952983012784</v>
       </c>
       <c r="J20">
-        <v>0.3602564733581859</v>
+        <v>0.007043028290087626</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>24.3535515704636</v>
+        <v>24.727721</v>
       </c>
       <c r="N20">
-        <v>24.3535515704636</v>
+        <v>74.18316300000001</v>
       </c>
       <c r="O20">
-        <v>0.3007471824154734</v>
+        <v>0.3020928817572056</v>
       </c>
       <c r="P20">
-        <v>0.3007471824154734</v>
+        <v>0.3859101031457101</v>
       </c>
       <c r="Q20">
-        <v>805.4925938546487</v>
+        <v>13.248717268264</v>
       </c>
       <c r="R20">
-        <v>805.4925938546487</v>
+        <v>119.238455414376</v>
       </c>
       <c r="S20">
-        <v>0.1083461193094095</v>
+        <v>0.001733871106314764</v>
       </c>
       <c r="T20">
-        <v>0.1083461193094095</v>
+        <v>0.00271797577388587</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1715,57 +1715,57 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>33.0749538326707</v>
+        <v>0.535784</v>
       </c>
       <c r="H21">
-        <v>33.0749538326707</v>
+        <v>1.607352</v>
       </c>
       <c r="I21">
-        <v>0.3602564733581859</v>
+        <v>0.00573952983012784</v>
       </c>
       <c r="J21">
-        <v>0.3602564733581859</v>
+        <v>0.007043028290087626</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.81461260748464</v>
+        <v>4.9910045</v>
       </c>
       <c r="N21">
-        <v>4.81461260748464</v>
+        <v>9.982009</v>
       </c>
       <c r="O21">
-        <v>0.05945667398586567</v>
+        <v>0.06097395438375338</v>
       </c>
       <c r="P21">
-        <v>0.05945667398586567</v>
+        <v>0.05192766076571049</v>
       </c>
       <c r="Q21">
-        <v>159.2430897147488</v>
+        <v>2.674100355028</v>
       </c>
       <c r="R21">
-        <v>159.2430897147488</v>
+        <v>16.044602130168</v>
       </c>
       <c r="S21">
-        <v>0.02141965168775536</v>
+        <v>0.0003499618300464067</v>
       </c>
       <c r="T21">
-        <v>0.02141965168775536</v>
+        <v>0.0003657279838109723</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1777,57 +1777,57 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>11.0818355071188</v>
+        <v>33.754358</v>
       </c>
       <c r="H22">
-        <v>11.0818355071188</v>
+        <v>101.263074</v>
       </c>
       <c r="I22">
-        <v>0.1207047180875166</v>
+        <v>0.3615900150766247</v>
       </c>
       <c r="J22">
-        <v>0.1207047180875166</v>
+        <v>0.4437103353361533</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>48.2281042436324</v>
+        <v>48.3439545</v>
       </c>
       <c r="N22">
-        <v>48.2281042436324</v>
+        <v>96.68790899999999</v>
       </c>
       <c r="O22">
-        <v>0.5955791056817948</v>
+        <v>0.5906069762936997</v>
       </c>
       <c r="P22">
-        <v>0.5955791056817948</v>
+        <v>0.5029826098832294</v>
       </c>
       <c r="Q22">
-        <v>534.4559180481124</v>
+        <v>1631.819147328711</v>
       </c>
       <c r="R22">
-        <v>534.4559180481124</v>
+        <v>9790.914883972266</v>
       </c>
       <c r="S22">
-        <v>0.07188920805013628</v>
+        <v>0.2135575854623986</v>
       </c>
       <c r="T22">
-        <v>0.07188920805013628</v>
+        <v>0.2231785824995413</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1839,57 +1839,57 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>11.0818355071188</v>
+        <v>33.754358</v>
       </c>
       <c r="H23">
-        <v>11.0818355071188</v>
+        <v>101.263074</v>
       </c>
       <c r="I23">
-        <v>0.1207047180875166</v>
+        <v>0.3615900150766247</v>
       </c>
       <c r="J23">
-        <v>0.1207047180875166</v>
+        <v>0.4437103353361533</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.58055528418522</v>
+        <v>3.756530666666666</v>
       </c>
       <c r="N23">
-        <v>3.58055528418522</v>
+        <v>11.269592</v>
       </c>
       <c r="O23">
-        <v>0.04421703791686597</v>
+        <v>0.04589267140722955</v>
       </c>
       <c r="P23">
-        <v>0.04421703791686597</v>
+        <v>0.05862582876292385</v>
       </c>
       <c r="Q23">
-        <v>39.67912468348562</v>
+        <v>126.7992809606453</v>
       </c>
       <c r="R23">
-        <v>39.67912468348562</v>
+        <v>1141.193528645808</v>
       </c>
       <c r="S23">
-        <v>0.005337205096420337</v>
+        <v>0.01659433174604672</v>
       </c>
       <c r="T23">
-        <v>0.005337205096420337</v>
+        <v>0.02601288613975685</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,117 +1898,489 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>11.0818355071188</v>
+        <v>33.754358</v>
       </c>
       <c r="H24">
-        <v>11.0818355071188</v>
+        <v>101.263074</v>
       </c>
       <c r="I24">
-        <v>0.1207047180875166</v>
+        <v>0.3615900150766247</v>
       </c>
       <c r="J24">
-        <v>0.1207047180875166</v>
+        <v>0.4437103353361533</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>24.3535515704636</v>
+        <v>0.03548533333333333</v>
       </c>
       <c r="N24">
-        <v>24.3535515704636</v>
+        <v>0.106456</v>
       </c>
       <c r="O24">
-        <v>0.3007471824154734</v>
+        <v>0.0004335161581118491</v>
       </c>
       <c r="P24">
-        <v>0.3007471824154734</v>
+        <v>0.0005537974424261163</v>
       </c>
       <c r="Q24">
-        <v>269.8820525180124</v>
+        <v>1.197784645082667</v>
       </c>
       <c r="R24">
-        <v>269.8820525180124</v>
+        <v>10.780061805744</v>
       </c>
       <c r="S24">
-        <v>0.03630160386907464</v>
+        <v>0.000156755114147624</v>
       </c>
       <c r="T24">
-        <v>0.03630160386907464</v>
+        <v>0.0002457256488871962</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>33.754358</v>
+      </c>
+      <c r="H25">
+        <v>101.263074</v>
+      </c>
+      <c r="I25">
+        <v>0.3615900150766247</v>
+      </c>
+      <c r="J25">
+        <v>0.4437103353361533</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>24.727721</v>
+      </c>
+      <c r="N25">
+        <v>74.18316300000001</v>
+      </c>
+      <c r="O25">
+        <v>0.3020928817572056</v>
+      </c>
+      <c r="P25">
+        <v>0.3859101031457101</v>
+      </c>
+      <c r="Q25">
+        <v>834.6683471581182</v>
+      </c>
+      <c r="R25">
+        <v>7512.015124423063</v>
+      </c>
+      <c r="S25">
+        <v>0.109233769669129</v>
+      </c>
+      <c r="T25">
+        <v>0.1712323012763925</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>33.754358</v>
+      </c>
+      <c r="H26">
+        <v>101.263074</v>
+      </c>
+      <c r="I26">
+        <v>0.3615900150766247</v>
+      </c>
+      <c r="J26">
+        <v>0.4437103353361533</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4.9910045</v>
+      </c>
+      <c r="N26">
+        <v>9.982009</v>
+      </c>
+      <c r="O26">
+        <v>0.06097395438375338</v>
+      </c>
+      <c r="P26">
+        <v>0.05192766076571049</v>
+      </c>
+      <c r="Q26">
+        <v>168.468152672611</v>
+      </c>
+      <c r="R26">
+        <v>1010.808916035666</v>
+      </c>
+      <c r="S26">
+        <v>0.02204757308490281</v>
+      </c>
+      <c r="T26">
+        <v>0.02304083977157542</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>11.0818355071188</v>
-      </c>
-      <c r="H25">
-        <v>11.0818355071188</v>
-      </c>
-      <c r="I25">
-        <v>0.1207047180875166</v>
-      </c>
-      <c r="J25">
-        <v>0.1207047180875166</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>4.81461260748464</v>
-      </c>
-      <c r="N25">
-        <v>4.81461260748464</v>
-      </c>
-      <c r="O25">
-        <v>0.05945667398586567</v>
-      </c>
-      <c r="P25">
-        <v>0.05945667398586567</v>
-      </c>
-      <c r="Q25">
-        <v>53.35474494664511</v>
-      </c>
-      <c r="R25">
-        <v>53.35474494664511</v>
-      </c>
-      <c r="S25">
-        <v>0.007176701071885295</v>
-      </c>
-      <c r="T25">
-        <v>0.007176701071885295</v>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>11.332808</v>
+      </c>
+      <c r="H27">
+        <v>22.665616</v>
+      </c>
+      <c r="I27">
+        <v>0.1214015154896589</v>
+      </c>
+      <c r="J27">
+        <v>0.09931525558823626</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>48.3439545</v>
+      </c>
+      <c r="N27">
+        <v>96.68790899999999</v>
+      </c>
+      <c r="O27">
+        <v>0.5906069762936997</v>
+      </c>
+      <c r="P27">
+        <v>0.5029826098832294</v>
+      </c>
+      <c r="Q27">
+        <v>547.8727543092359</v>
+      </c>
+      <c r="R27">
+        <v>2191.491017236944</v>
+      </c>
+      <c r="S27">
+        <v>0.07170058198082022</v>
+      </c>
+      <c r="T27">
+        <v>0.04995384645699106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>11.332808</v>
+      </c>
+      <c r="H28">
+        <v>22.665616</v>
+      </c>
+      <c r="I28">
+        <v>0.1214015154896589</v>
+      </c>
+      <c r="J28">
+        <v>0.09931525558823626</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>3.756530666666666</v>
+      </c>
+      <c r="N28">
+        <v>11.269592</v>
+      </c>
+      <c r="O28">
+        <v>0.04589267140722955</v>
+      </c>
+      <c r="P28">
+        <v>0.05862582876292385</v>
+      </c>
+      <c r="Q28">
+        <v>42.57204079144533</v>
+      </c>
+      <c r="R28">
+        <v>255.432244748672</v>
+      </c>
+      <c r="S28">
+        <v>0.005571439858706607</v>
+      </c>
+      <c r="T28">
+        <v>0.005822439167661955</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>11.332808</v>
+      </c>
+      <c r="H29">
+        <v>22.665616</v>
+      </c>
+      <c r="I29">
+        <v>0.1214015154896589</v>
+      </c>
+      <c r="J29">
+        <v>0.09931525558823626</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.03548533333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.106456</v>
+      </c>
+      <c r="O29">
+        <v>0.0004335161581118491</v>
+      </c>
+      <c r="P29">
+        <v>0.0005537974424261163</v>
+      </c>
+      <c r="Q29">
+        <v>0.4021484694826667</v>
+      </c>
+      <c r="R29">
+        <v>2.412890816896</v>
+      </c>
+      <c r="S29">
+        <v>5.262951858403308E-05</v>
+      </c>
+      <c r="T29">
+        <v>5.500053453866129E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>11.332808</v>
+      </c>
+      <c r="H30">
+        <v>22.665616</v>
+      </c>
+      <c r="I30">
+        <v>0.1214015154896589</v>
+      </c>
+      <c r="J30">
+        <v>0.09931525558823626</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>24.727721</v>
+      </c>
+      <c r="N30">
+        <v>74.18316300000001</v>
+      </c>
+      <c r="O30">
+        <v>0.3020928817572056</v>
+      </c>
+      <c r="P30">
+        <v>0.3859101031457101</v>
+      </c>
+      <c r="Q30">
+        <v>280.234514370568</v>
+      </c>
+      <c r="R30">
+        <v>1681.407086223408</v>
+      </c>
+      <c r="S30">
+        <v>0.0366745336639631</v>
+      </c>
+      <c r="T30">
+        <v>0.03832676052799881</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>11.332808</v>
+      </c>
+      <c r="H31">
+        <v>22.665616</v>
+      </c>
+      <c r="I31">
+        <v>0.1214015154896589</v>
+      </c>
+      <c r="J31">
+        <v>0.09931525558823626</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>4.9910045</v>
+      </c>
+      <c r="N31">
+        <v>9.982009</v>
+      </c>
+      <c r="O31">
+        <v>0.06097395438375338</v>
+      </c>
+      <c r="P31">
+        <v>0.05192766076571049</v>
+      </c>
+      <c r="Q31">
+        <v>56.562095725636</v>
+      </c>
+      <c r="R31">
+        <v>226.248382902544</v>
+      </c>
+      <c r="S31">
+        <v>0.007402330467584994</v>
+      </c>
+      <c r="T31">
+        <v>0.005157208901045765</v>
       </c>
     </row>
   </sheetData>
